--- a/Lista_banci.xlsx
+++ b/Lista_banci.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Nume</t>
   </si>
@@ -121,6 +121,26 @@
   </si>
   <si>
     <t>90 euro</t>
+  </si>
+  <si>
+    <t>2.75%+IRCC</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>CEC Bank
+Fara credit prin card</t>
+  </si>
+  <si>
+    <t>CEC Bank
+Cu credit prin card</t>
+  </si>
+  <si>
+    <t>2.15%+IRCC</t>
+  </si>
+  <si>
+    <t>1.90%+IRCC</t>
   </si>
 </sst>
 </file>
@@ -478,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q7"/>
+  <dimension ref="B2:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +780,15 @@
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K7" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -774,6 +803,133 @@
       </c>
       <c r="O7" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>M7/L7*100</f>
+        <v>220.61755952380952</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1">
+        <v>900</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>336000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>705782</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1900</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>M8/L8*100</f>
+        <v>210.05416666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>134</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1">
+        <v>336000</v>
+      </c>
+      <c r="M9" s="1">
+        <v>682193</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1900</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>M9/L9*100</f>
+        <v>203.03363095238095</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>134</v>
+      </c>
+      <c r="L10" s="1">
+        <v>336000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>663884</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1848</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>M10/L10*100</f>
+        <v>197.5845238095238</v>
       </c>
     </row>
   </sheetData>

--- a/Lista_banci.xlsx
+++ b/Lista_banci.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apartament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSUsers\uib00020\Personal\apartament\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E427E5A-F566-495A-A2B5-13F63884B8D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credit ipotecar" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Credit ipotecar'!$A$2:$R$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$4:$M$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -210,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,6 +347,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +637,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="10">
-        <f>N3/M3*100</f>
+        <f t="shared" ref="R3:R10" si="0">N3/M3*100</f>
         <v>197.5845238095238</v>
       </c>
     </row>
@@ -811,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="R4" s="10">
-        <f>N4/M4*100</f>
+        <f t="shared" si="0"/>
         <v>199.38005952380954</v>
       </c>
     </row>
@@ -868,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="R5" s="10">
-        <f>N5/M5*100</f>
+        <f t="shared" si="0"/>
         <v>203.03363095238095</v>
       </c>
     </row>
@@ -923,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="R6" s="10">
-        <f>N6/M6*100</f>
+        <f t="shared" si="0"/>
         <v>210.05416666666665</v>
       </c>
     </row>
@@ -980,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="R7" s="7">
-        <f>N7/M7*100</f>
+        <f t="shared" si="0"/>
         <v>217.89880952380952</v>
       </c>
     </row>
@@ -1035,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="R8" s="7">
-        <f>N8/M8*100</f>
+        <f t="shared" si="0"/>
         <v>220.61755952380952</v>
       </c>
     </row>
@@ -1092,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="R9" s="7">
-        <f>N9/M9*100</f>
+        <f t="shared" si="0"/>
         <v>223.21488095238092</v>
       </c>
     </row>
@@ -1149,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="R10" s="7">
-        <f>N10/M10*100</f>
+        <f t="shared" si="0"/>
         <v>227.70654761904763</v>
       </c>
     </row>
@@ -1255,12 +1271,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R12">
-    <sortState ref="A3:R12">
+  <autoFilter ref="A2:R12" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R12">
       <sortCondition ref="N2:N12"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:R12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R12">
     <sortCondition ref="C3:C12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,11 +1285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,76 +1348,76 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>0.10440000000000001</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="21">
         <v>40000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="21">
         <v>51323</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <f>F5/E5*100</f>
         <v>128.3075</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21">
         <v>200</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="21">
         <v>864</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>20000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="21">
         <v>24964</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <f>F6/E6*100</f>
         <v>124.82</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="21">
         <v>200</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="21">
         <v>412</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
@@ -1709,7 +1725,7 @@
         <v>53</v>
       </c>
       <c r="H15" s="7">
-        <f>F15/E15*100</f>
+        <f t="shared" ref="H5:H16" si="0">F15/E15*100</f>
         <v>133.10999999999999</v>
       </c>
       <c r="I15" s="15" t="s">
@@ -1742,7 +1758,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="7">
-        <f>F16/E16*100</f>
+        <f t="shared" si="0"/>
         <v>134.62</v>
       </c>
       <c r="I16" s="15" t="s">
@@ -1760,8 +1776,8 @@
       <c r="M16" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:M16">
-    <sortState ref="B5:M16">
+  <autoFilter ref="B4:M16" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:M14">
       <sortCondition ref="C4:C16"/>
     </sortState>
   </autoFilter>

--- a/Lista_banci.xlsx
+++ b/Lista_banci.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSUsers\uib00020\Personal\apartament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apartament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E427E5A-F566-495A-A2B5-13F63884B8D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Credit ipotecar" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Credit ipotecar'!$A$2:$R$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$4:$M$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>Nume</t>
   </si>
@@ -212,12 +211,24 @@
   </si>
   <si>
     <t>5ani</t>
+  </si>
+  <si>
+    <t>500*2</t>
+  </si>
+  <si>
+    <t>20% = 77760</t>
+  </si>
+  <si>
+    <t>81.000 euro</t>
+  </si>
+  <si>
+    <t>15% = 58320</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,6 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,19 +737,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="10">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D3" s="10">
         <v>350</v>
       </c>
-      <c r="E3" s="10">
-        <v>500</v>
+      <c r="E3" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F3" s="10">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
@@ -755,46 +767,46 @@
         <v>23</v>
       </c>
       <c r="M3" s="10">
-        <v>336000</v>
+        <v>311040</v>
       </c>
       <c r="N3" s="10">
-        <v>663884</v>
+        <v>648429</v>
       </c>
       <c r="O3" s="10">
-        <v>1848</v>
+        <v>1800</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="R3" s="10">
-        <f t="shared" ref="R3:R10" si="0">N3/M3*100</f>
-        <v>197.5845238095238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f>N3/M3*100</f>
+        <v>208.47125771604937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="10">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="D4" s="10">
-        <v>500</v>
-      </c>
-      <c r="E4" s="10">
-        <v>400</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>350</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10">
+        <v>124</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <v>0</v>
@@ -808,84 +820,82 @@
       <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="13">
-        <v>5.8299999999999998E-2</v>
+      <c r="L4" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="M4" s="10">
-        <v>336000</v>
+        <v>311040</v>
       </c>
       <c r="N4" s="10">
-        <v>669917</v>
+        <v>655250</v>
       </c>
       <c r="O4" s="10">
+        <v>1824</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="10">
+        <f>N4/M4*100</f>
+        <v>210.66422325102883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>500</v>
+      </c>
+      <c r="E5" s="7">
+        <v>400</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>330480</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
         <v>1931</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="10">
-        <f t="shared" si="0"/>
-        <v>199.38005952380954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2.15</v>
-      </c>
-      <c r="D5" s="10">
-        <v>350</v>
-      </c>
-      <c r="E5" s="10">
-        <v>500</v>
-      </c>
-      <c r="F5" s="10">
-        <v>134</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="10">
-        <v>336000</v>
-      </c>
-      <c r="N5" s="10">
-        <v>682193</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1900</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="10">
-        <f t="shared" si="0"/>
-        <v>203.03363095238095</v>
+      <c r="R5" s="7">
+        <f>N5/M5*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -923,95 +933,95 @@
       <c r="L6" s="13">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="7">
+        <v>330480</v>
+      </c>
+      <c r="N6" s="10">
+        <v>694301</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1865</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="10">
+        <f>N6/M6*100</f>
+        <v>210.08865892035828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.95</v>
+      </c>
+      <c r="D7" s="10">
+        <v>500</v>
+      </c>
+      <c r="E7" s="10">
+        <v>400</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="M7" s="10">
         <v>336000</v>
       </c>
-      <c r="N6" s="10">
-        <v>705782</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1900</v>
-      </c>
-      <c r="P6" s="12" t="s">
+      <c r="N7" s="10">
+        <v>669917</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1931</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="10">
-        <f t="shared" si="0"/>
-        <v>210.05416666666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>650</v>
-      </c>
-      <c r="I7" s="7">
-        <v>151</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="3">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>336000</v>
-      </c>
-      <c r="N7" s="7">
-        <v>732140</v>
-      </c>
-      <c r="O7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="0"/>
-        <v>217.89880952380952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="10">
+        <f>N7/M7*100</f>
+        <v>199.38005952380954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.02</v>
+      </c>
+      <c r="D8" s="7">
+        <v>500</v>
       </c>
       <c r="E8" s="7">
         <v>900</v>
@@ -1022,66 +1032,68 @@
       <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>23</v>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>99.76</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="M8" s="7">
         <v>336000</v>
       </c>
       <c r="N8" s="7">
-        <v>741275</v>
+        <v>750002</v>
       </c>
       <c r="O8" s="7">
-        <v>2074</v>
+        <v>2036</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="7" t="s">
-        <v>8</v>
+      <c r="Q8" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="0"/>
-        <v>220.61755952380952</v>
+        <f>N8/M8*100</f>
+        <v>223.21488095238092</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>3.02</v>
-      </c>
-      <c r="D9" s="7">
-        <v>500</v>
+        <v>7.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I9" s="7">
-        <v>99.76</v>
+        <v>151</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1090,37 +1102,26 @@
         <v>13</v>
       </c>
       <c r="L9" s="3">
-        <v>6.7100000000000007E-2</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="M9" s="7">
         <v>336000</v>
       </c>
-      <c r="N9" s="7">
-        <v>750002</v>
-      </c>
-      <c r="O9" s="7">
-        <v>2036</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="7">
-        <f t="shared" si="0"/>
-        <v>223.21488095238092</v>
-      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1147,37 +1148,37 @@
         <v>13</v>
       </c>
       <c r="L10" s="3">
-        <v>6.7400000000000002E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="M10" s="7">
         <v>336000</v>
       </c>
       <c r="N10" s="7">
-        <v>765094</v>
+        <v>732140</v>
       </c>
       <c r="O10" s="7">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="0"/>
-        <v>227.70654761904763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+        <f>N10/M10*100</f>
+        <v>217.89880952380952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
-        <v>7.75</v>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1209,37 +1210,46 @@
       <c r="M11" s="7">
         <v>336000</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="N11" s="7">
+        <v>765094</v>
+      </c>
+      <c r="O11" s="7">
+        <v>2100</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="7">
+        <f>N11/M11*100</f>
+        <v>227.70654761904763</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>500</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="7">
-        <v>400</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
         <v>23</v>
       </c>
@@ -1249,15 +1259,17 @@
       <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>23</v>
+      <c r="L12" s="3">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M12" s="7">
         <v>336000</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7">
+        <v>741275</v>
+      </c>
       <c r="O12" s="7">
-        <v>1931</v>
+        <v>2074</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>9</v>
@@ -1267,16 +1279,16 @@
       </c>
       <c r="R12" s="7">
         <f>N12/M12*100</f>
-        <v>0</v>
+        <v>220.61755952380952</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:R12" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R12">
-      <sortCondition ref="N2:N12"/>
+  <autoFilter ref="A2:R12">
+    <sortState ref="A3:R12">
+      <sortCondition ref="C2:C12"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R12">
+  <sortState ref="A3:R12">
     <sortCondition ref="C3:C12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,11 +1297,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,73 +1362,73 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C5" s="20">
-        <v>8.4599999999999995E-2</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="D5" s="20">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="E5" s="21">
-        <v>40000</v>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>50000</v>
       </c>
       <c r="F5" s="21">
-        <v>51323</v>
+        <v>61042</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H5" s="10">
         <f>F5/E5*100</f>
-        <v>128.3075</v>
+        <v>122.08399999999999</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="K5" s="21">
         <v>200</v>
       </c>
       <c r="L5" s="21">
-        <v>864</v>
+        <v>1014</v>
       </c>
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C6" s="20">
-        <v>8.7499999999999994E-2</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="D6" s="20">
-        <v>9.5799999999999996E-2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>20000</v>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="E6" s="21">
+        <v>50000</v>
       </c>
       <c r="F6" s="21">
-        <v>24964</v>
+        <v>63663</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H6" s="10">
         <f>F6/E6*100</f>
-        <v>124.82</v>
+        <v>127.32600000000001</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="21">
         <v>200</v>
       </c>
       <c r="L6" s="21">
-        <v>412</v>
+        <v>1075</v>
       </c>
       <c r="M6" s="21"/>
     </row>
@@ -1427,20 +1440,20 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="D7" s="18">
-        <v>9.3399999999999997E-2</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="E7" s="15">
-        <v>40000</v>
+        <v>28800</v>
       </c>
       <c r="F7" s="15">
-        <v>49729</v>
+        <v>35861</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="7">
         <f>F7/E7*100</f>
-        <v>124.32250000000001</v>
+        <v>124.51736111111111</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>46</v>
@@ -1452,11 +1465,11 @@
         <v>200</v>
       </c>
       <c r="L7" s="15">
-        <v>826</v>
+        <v>600</v>
       </c>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1504,7 @@
       </c>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>51</v>
       </c>
@@ -1534,20 +1547,20 @@
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="D10" s="18">
-        <v>0.1038</v>
+        <v>0.1028</v>
       </c>
       <c r="E10" s="15">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F10" s="15">
-        <v>50897</v>
+        <v>63484</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="7">
         <f>F10/E10*100</f>
-        <v>127.24249999999999</v>
+        <v>126.96799999999999</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>46</v>
@@ -1559,48 +1572,46 @@
         <v>200</v>
       </c>
       <c r="L10" s="15">
-        <v>848</v>
+        <v>1054</v>
       </c>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="18">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.1067</v>
-      </c>
-      <c r="E11" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="15">
-        <v>25549</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.1187</v>
+      </c>
+      <c r="E11" s="21">
+        <v>28800</v>
+      </c>
+      <c r="F11" s="21">
+        <v>37923</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10">
         <f>F11/E11*100</f>
-        <v>127.745</v>
-      </c>
-      <c r="I11" s="15" t="s">
+        <v>131.67708333333331</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
         <v>200</v>
       </c>
-      <c r="L11" s="15">
-        <v>422</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="L11" s="21">
+        <v>637</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="2:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
@@ -1608,20 +1619,20 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="D12" s="18">
-        <v>0.1043</v>
-      </c>
-      <c r="E12" s="15">
-        <v>40000</v>
+        <v>0.1067</v>
+      </c>
+      <c r="E12" s="7">
+        <v>20000</v>
       </c>
       <c r="F12" s="15">
-        <v>50898</v>
+        <v>25549</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="7">
         <f>F12/E12*100</f>
-        <v>127.245</v>
+        <v>127.745</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>46</v>
@@ -1631,48 +1642,50 @@
         <v>200</v>
       </c>
       <c r="L12" s="15">
-        <v>844</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.1036</v>
-      </c>
-      <c r="E13" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F13" s="7">
-        <v>25438</v>
+    <row r="13" spans="2:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.1043</v>
+      </c>
+      <c r="E13" s="15">
+        <v>40000</v>
+      </c>
+      <c r="F13" s="15">
+        <v>50898</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="7">
         <f>F13/E13*100</f>
-        <v>127.19</v>
+        <v>127.245</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
+        <v>200</v>
+      </c>
+      <c r="L13" s="15">
+        <v>844</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1682,65 +1695,65 @@
       <c r="D14" s="3">
         <v>0.1036</v>
       </c>
-      <c r="E14" s="15">
-        <v>40000</v>
-      </c>
-      <c r="F14" s="15">
-        <v>50875</v>
+      <c r="E14" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="7">
+        <v>25438</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="7">
         <f>F14/E14*100</f>
-        <v>127.18750000000001</v>
+        <v>127.19</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.128</v>
+    <row r="15" spans="2:13" s="22" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1036</v>
       </c>
       <c r="E15" s="15">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F15" s="15">
-        <v>26622</v>
+        <v>50875</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" ref="H5:H16" si="0">F15/E15*100</f>
-        <v>133.10999999999999</v>
+        <f>F15/E15*100</f>
+        <v>127.18750000000001</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15">
-        <v>200</v>
-      </c>
-      <c r="L15" s="15">
-        <v>453</v>
-      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f>F16/E16*100</f>
         <v>134.62</v>
       </c>
       <c r="I16" s="15" t="s">
@@ -1776,8 +1789,14 @@
       <c r="M16" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:M16" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:M14">
+  <autoFilter ref="B4:M16">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="28800"/>
+        <filter val="50000"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="B5:M16">
       <sortCondition ref="C4:C16"/>
     </sortState>
   </autoFilter>
